--- a/informe/public/presupuesto.xlsx
+++ b/informe/public/presupuesto.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MARROQUIN\Desktop\-ORGA-Proyecto_G3\informe\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCDB0A6F-AD18-4197-99BA-346FED44AC38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F797902C-DD00-4479-9979-1A06142406EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -578,8 +578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="80" zoomScaleNormal="28" workbookViewId="0">
-      <selection activeCell="I40" sqref="I40"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="28" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -601,7 +601,9 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A2" s="12"/>
+      <c r="A2" s="12">
+        <v>45770</v>
+      </c>
       <c r="B2" s="4"/>
       <c r="C2" s="10"/>
     </row>

--- a/informe/public/presupuesto.xlsx
+++ b/informe/public/presupuesto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MARROQUIN\Desktop\-ORGA-Proyecto_G3\informe\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F797902C-DD00-4479-9979-1A06142406EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C944AC0-B6EB-4617-AEED-BF18B34E2EF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
   <si>
     <r>
       <rPr>
@@ -78,6 +78,21 @@
   </si>
   <si>
     <t>sub total</t>
+  </si>
+  <si>
+    <t>PIZZAS PAPA JOHNS</t>
+  </si>
+  <si>
+    <t>JUMPERS Y LEDS</t>
+  </si>
+  <si>
+    <t>GASTOS VARIOS</t>
+  </si>
+  <si>
+    <t>LCD</t>
+  </si>
+  <si>
+    <t>LCD SOLDADO</t>
   </si>
 </sst>
 </file>
@@ -576,10 +591,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C50"/>
+  <dimension ref="A1:C49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="28" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -604,18 +619,30 @@
       <c r="A2" s="12">
         <v>45770</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="10"/>
+      <c r="B2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="10">
+        <v>51</v>
+      </c>
     </row>
     <row r="3" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A3" s="13"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="3"/>
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="3">
+        <v>51</v>
+      </c>
     </row>
     <row r="4" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A4" s="13"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="3"/>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3">
+        <v>150</v>
+      </c>
     </row>
     <row r="5" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A5" s="13"/>
@@ -624,38 +651,48 @@
       </c>
       <c r="C5" s="3">
         <f>SUM(C2:C4)</f>
-        <v>0</v>
+        <v>252</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A6" s="12"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="11"/>
+      <c r="A6" s="12">
+        <v>45772</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="11">
+        <v>15.25</v>
+      </c>
     </row>
     <row r="7" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A7" s="13"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="3"/>
+      <c r="B7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="3">
+        <v>116</v>
+      </c>
     </row>
     <row r="8" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A8" s="13"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="3"/>
+      <c r="B8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="3">
+        <f>SUM(C6:C7)</f>
+        <v>131.25</v>
+      </c>
     </row>
     <row r="9" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A9" s="13"/>
-      <c r="B9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="3">
-        <f>SUM(C6:C8)</f>
-        <v>0</v>
-      </c>
+      <c r="A9" s="12"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="11"/>
     </row>
     <row r="10" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A10" s="12"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="11"/>
+      <c r="A10" s="13"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="3"/>
     </row>
     <row r="11" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A11" s="13"/>
@@ -669,23 +706,23 @@
     </row>
     <row r="13" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A13" s="13"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="3"/>
+      <c r="B13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="3">
+        <f>SUM(C9:C12)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A14" s="13"/>
-      <c r="B14" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C14" s="3">
-        <f>SUM(C10:C13)</f>
-        <v>0</v>
-      </c>
+      <c r="A14" s="12"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="11"/>
     </row>
     <row r="15" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A15" s="12"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="11"/>
+      <c r="A15" s="13"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="3"/>
     </row>
     <row r="16" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A16" s="13"/>
@@ -709,23 +746,23 @@
     </row>
     <row r="20" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A20" s="13"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="3"/>
+      <c r="B20" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="3">
+        <f>SUM(C14:C19)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A21" s="13"/>
-      <c r="B21" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C21" s="3">
-        <f>SUM(C15:C20)</f>
-        <v>0</v>
-      </c>
+      <c r="A21" s="12"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="11"/>
     </row>
     <row r="22" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A22" s="12"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="11"/>
+      <c r="A22" s="13"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="3"/>
     </row>
     <row r="23" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A23" s="13"/>
@@ -734,23 +771,23 @@
     </row>
     <row r="24" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A24" s="13"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="3"/>
+      <c r="B24" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" s="3">
+        <f>SUM(C21:C23)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="25" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A25" s="13"/>
-      <c r="B25" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C25" s="3">
-        <f>SUM(C22:C24)</f>
-        <v>0</v>
-      </c>
+      <c r="A25" s="12"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="11"/>
     </row>
     <row r="26" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A26" s="12"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="11"/>
+      <c r="A26" s="13"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="3"/>
     </row>
     <row r="27" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A27" s="13"/>
@@ -764,23 +801,23 @@
     </row>
     <row r="29" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A29" s="13"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="3"/>
+      <c r="B29" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" s="3">
+        <f>SUM(C25:C28)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="30" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A30" s="13"/>
-      <c r="B30" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C30" s="3">
-        <f>SUM(C26:C29)</f>
-        <v>0</v>
-      </c>
+      <c r="A30" s="12"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="11"/>
     </row>
     <row r="31" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A31" s="12"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="11"/>
+      <c r="A31" s="13"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="3"/>
     </row>
     <row r="32" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A32" s="13"/>
@@ -794,23 +831,23 @@
     </row>
     <row r="34" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A34" s="13"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="3"/>
+      <c r="B34" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" s="3">
+        <f>SUM(C30:C33)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="35" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A35" s="13"/>
-      <c r="B35" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C35" s="3">
-        <f>SUM(C31:C34)</f>
-        <v>0</v>
-      </c>
+      <c r="A35" s="12"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="11"/>
     </row>
     <row r="36" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A36" s="12"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="11"/>
+      <c r="A36" s="13"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="3"/>
     </row>
     <row r="37" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A37" s="13"/>
@@ -834,43 +871,43 @@
     </row>
     <row r="41" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A41" s="13"/>
-      <c r="B41" s="5"/>
-      <c r="C41" s="3"/>
+      <c r="B41" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="3">
+        <f>SUM(C35:C40)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="42" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A42" s="13"/>
-      <c r="B42" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C42" s="3">
-        <f>SUM(C36:C41)</f>
-        <v>0</v>
-      </c>
+      <c r="A42" s="17"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="11"/>
     </row>
     <row r="43" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A43" s="17"/>
-      <c r="B43" s="18"/>
-      <c r="C43" s="11"/>
+      <c r="A43" s="13"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="3"/>
     </row>
     <row r="44" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A44" s="13"/>
-      <c r="B44" s="5"/>
-      <c r="C44" s="3"/>
+      <c r="B44" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" s="3">
+        <f>SUM(C42:C43)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="45" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A45" s="13"/>
-      <c r="B45" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C45" s="3">
-        <f>SUM(C43:C44)</f>
-        <v>0</v>
-      </c>
+      <c r="A45" s="12"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="11"/>
     </row>
     <row r="46" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A46" s="12"/>
-      <c r="B46" s="6"/>
-      <c r="C46" s="11"/>
+      <c r="A46" s="13"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="3"/>
     </row>
     <row r="47" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A47" s="13"/>
@@ -879,27 +916,22 @@
     </row>
     <row r="48" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A48" s="13"/>
-      <c r="B48" s="5"/>
-      <c r="C48" s="3"/>
+      <c r="B48" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48" s="3">
+        <f>SUM(C45:C47)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="49" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A49" s="13"/>
-      <c r="B49" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C49" s="3">
-        <f>SUM(C46:C48)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A50" s="14"/>
-      <c r="B50" s="15" t="s">
+      <c r="A49" s="14"/>
+      <c r="B49" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C50" s="16">
-        <f>C5+C9+C14+C35+C21+C25+C30+C42+C45+C49</f>
-        <v>0</v>
+      <c r="C49" s="16">
+        <f>C5+C8+C13+C34+C20+C24+C29+C41+C44+C48</f>
+        <v>383.25</v>
       </c>
     </row>
   </sheetData>

--- a/informe/public/presupuesto.xlsx
+++ b/informe/public/presupuesto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MARROQUIN\Desktop\-ORGA-Proyecto_G3\informe\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C944AC0-B6EB-4617-AEED-BF18B34E2EF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17876D57-B332-4E08-A420-425EB1FCDF6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
   <si>
     <r>
       <rPr>
@@ -93,6 +93,9 @@
   </si>
   <si>
     <t>LCD SOLDADO</t>
+  </si>
+  <si>
+    <t>3 BARRITA DE SILICON</t>
   </si>
 </sst>
 </file>
@@ -593,8 +596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -685,9 +688,15 @@
       </c>
     </row>
     <row r="9" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A9" s="12"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="11"/>
+      <c r="A9" s="12">
+        <v>45775</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="11">
+        <v>3</v>
+      </c>
     </row>
     <row r="10" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A10" s="13"/>
@@ -711,7 +720,7 @@
       </c>
       <c r="C13" s="3">
         <f>SUM(C9:C12)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -931,7 +940,7 @@
       </c>
       <c r="C49" s="16">
         <f>C5+C8+C13+C34+C20+C24+C29+C41+C44+C48</f>
-        <v>383.25</v>
+        <v>386.25</v>
       </c>
     </row>
   </sheetData>

--- a/informe/public/presupuesto.xlsx
+++ b/informe/public/presupuesto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MARROQUIN\Desktop\-ORGA-Proyecto_G3\informe\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17876D57-B332-4E08-A420-425EB1FCDF6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A45C65E-94B6-467C-9DAC-D4276D1528AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
   <si>
     <r>
       <rPr>
@@ -594,10 +594,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C49"/>
+  <dimension ref="A1:C47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -700,33 +700,37 @@
     </row>
     <row r="10" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A10" s="13"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="3"/>
+      <c r="B10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="3">
+        <v>53</v>
+      </c>
     </row>
     <row r="11" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A11" s="13"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="3"/>
+      <c r="B11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="3">
+        <f>SUM(C9:C10)</f>
+        <v>56</v>
+      </c>
     </row>
     <row r="12" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A12" s="13"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="3"/>
+      <c r="A12" s="12"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="11"/>
     </row>
     <row r="13" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A13" s="13"/>
-      <c r="B13" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C13" s="3">
-        <f>SUM(C9:C12)</f>
-        <v>3</v>
-      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="3"/>
     </row>
     <row r="14" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A14" s="12"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="11"/>
+      <c r="A14" s="13"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="3"/>
     </row>
     <row r="15" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A15" s="13"/>
@@ -745,53 +749,53 @@
     </row>
     <row r="18" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A18" s="13"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="3"/>
+      <c r="B18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="3">
+        <f>SUM(C12:C17)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A19" s="13"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="3"/>
+      <c r="A19" s="12"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="11"/>
     </row>
     <row r="20" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A20" s="13"/>
-      <c r="B20" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C20" s="3">
-        <f>SUM(C14:C19)</f>
-        <v>0</v>
-      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="3"/>
     </row>
     <row r="21" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A21" s="12"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="11"/>
+      <c r="A21" s="13"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="3"/>
     </row>
     <row r="22" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A22" s="13"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="3"/>
+      <c r="B22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="3">
+        <f>SUM(C19:C21)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A23" s="13"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="3"/>
+      <c r="A23" s="12"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="11"/>
     </row>
     <row r="24" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A24" s="13"/>
-      <c r="B24" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C24" s="3">
-        <f>SUM(C21:C23)</f>
-        <v>0</v>
-      </c>
+      <c r="B24" s="5"/>
+      <c r="C24" s="3"/>
     </row>
     <row r="25" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A25" s="12"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="11"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="3"/>
     </row>
     <row r="26" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A26" s="13"/>
@@ -800,28 +804,28 @@
     </row>
     <row r="27" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A27" s="13"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="3"/>
+      <c r="B27" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" s="3">
+        <f>SUM(C23:C26)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="28" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A28" s="13"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="3"/>
+      <c r="A28" s="12"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="11"/>
     </row>
     <row r="29" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A29" s="13"/>
-      <c r="B29" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C29" s="3">
-        <f>SUM(C25:C28)</f>
-        <v>0</v>
-      </c>
+      <c r="B29" s="5"/>
+      <c r="C29" s="3"/>
     </row>
     <row r="30" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A30" s="12"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="11"/>
+      <c r="A30" s="13"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="3"/>
     </row>
     <row r="31" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A31" s="13"/>
@@ -830,28 +834,28 @@
     </row>
     <row r="32" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A32" s="13"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="3"/>
+      <c r="B32" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" s="3">
+        <f>SUM(C28:C31)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="33" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A33" s="13"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="3"/>
+      <c r="A33" s="12"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="11"/>
     </row>
     <row r="34" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A34" s="13"/>
-      <c r="B34" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C34" s="3">
-        <f>SUM(C30:C33)</f>
-        <v>0</v>
-      </c>
+      <c r="B34" s="5"/>
+      <c r="C34" s="3"/>
     </row>
     <row r="35" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A35" s="12"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="11"/>
+      <c r="A35" s="13"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="3"/>
     </row>
     <row r="36" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A36" s="13"/>
@@ -870,77 +874,67 @@
     </row>
     <row r="39" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A39" s="13"/>
-      <c r="B39" s="5"/>
-      <c r="C39" s="3"/>
+      <c r="B39" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="3">
+        <f>SUM(C33:C38)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="40" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A40" s="13"/>
-      <c r="B40" s="5"/>
-      <c r="C40" s="3"/>
+      <c r="A40" s="17"/>
+      <c r="B40" s="18"/>
+      <c r="C40" s="11"/>
     </row>
     <row r="41" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A41" s="13"/>
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="5"/>
+      <c r="C41" s="3"/>
+    </row>
+    <row r="42" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A42" s="13"/>
+      <c r="B42" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C41" s="3">
-        <f>SUM(C35:C40)</f>
+      <c r="C42" s="3">
+        <f>SUM(C40:C41)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A42" s="17"/>
-      <c r="B42" s="18"/>
-      <c r="C42" s="11"/>
-    </row>
     <row r="43" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A43" s="13"/>
-      <c r="B43" s="5"/>
-      <c r="C43" s="3"/>
+      <c r="A43" s="12"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="11"/>
     </row>
     <row r="44" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A44" s="13"/>
-      <c r="B44" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C44" s="3">
-        <f>SUM(C42:C43)</f>
-        <v>0</v>
-      </c>
+      <c r="B44" s="5"/>
+      <c r="C44" s="3"/>
     </row>
     <row r="45" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A45" s="12"/>
-      <c r="B45" s="6"/>
-      <c r="C45" s="11"/>
+      <c r="A45" s="13"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="3"/>
     </row>
     <row r="46" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A46" s="13"/>
-      <c r="B46" s="5"/>
-      <c r="C46" s="3"/>
+      <c r="B46" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" s="3">
+        <f>SUM(C43:C45)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="47" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A47" s="13"/>
-      <c r="B47" s="5"/>
-      <c r="C47" s="3"/>
-    </row>
-    <row r="48" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A48" s="13"/>
-      <c r="B48" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C48" s="3">
-        <f>SUM(C45:C47)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A49" s="14"/>
-      <c r="B49" s="15" t="s">
+      <c r="A47" s="14"/>
+      <c r="B47" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C49" s="16">
-        <f>C5+C8+C13+C34+C20+C24+C29+C41+C44+C48</f>
-        <v>386.25</v>
+      <c r="C47" s="16">
+        <f>C5+C8+C11+C32+C18+C22+C27+C39+C42+C46</f>
+        <v>439.25</v>
       </c>
     </row>
   </sheetData>

--- a/informe/public/presupuesto.xlsx
+++ b/informe/public/presupuesto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MARROQUIN\Desktop\-ORGA-Proyecto_G3\informe\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A45C65E-94B6-467C-9DAC-D4276D1528AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C16366F-3679-49DE-9C98-DAC13FBB6C1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <r>
       <rPr>
@@ -71,31 +71,28 @@
     <t>TOTAL ABSOLUTO</t>
   </si>
   <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>PIZZAS PAPA JOHNS</t>
+  </si>
+  <si>
+    <t>JUMPERS Y LEDS</t>
+  </si>
+  <si>
+    <t>GASTOS VARIOS</t>
+  </si>
+  <si>
+    <t>LCD</t>
+  </si>
+  <si>
+    <t>LCD SOLDADO</t>
+  </si>
+  <si>
+    <t>3 BARRITA DE SILICON</t>
+  </si>
+  <si>
     <t>subtotal</t>
-  </si>
-  <si>
-    <t>Q</t>
-  </si>
-  <si>
-    <t>sub total</t>
-  </si>
-  <si>
-    <t>PIZZAS PAPA JOHNS</t>
-  </si>
-  <si>
-    <t>JUMPERS Y LEDS</t>
-  </si>
-  <si>
-    <t>GASTOS VARIOS</t>
-  </si>
-  <si>
-    <t>LCD</t>
-  </si>
-  <si>
-    <t>LCD SOLDADO</t>
-  </si>
-  <si>
-    <t>3 BARRITA DE SILICON</t>
   </si>
 </sst>
 </file>
@@ -232,7 +229,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -248,12 +245,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -282,12 +273,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="8" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -594,10 +579,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C47"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -608,47 +593,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
-        <v>5</v>
+      <c r="C1" s="7" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A2" s="12">
+      <c r="A2" s="10">
         <v>45770</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="10">
+        <v>8</v>
+      </c>
+      <c r="C2" s="8">
         <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A3" s="13"/>
+      <c r="A3" s="11"/>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C3" s="3">
         <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A4" s="13"/>
+      <c r="A4" s="11"/>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C4" s="3">
         <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A5" s="13"/>
+      <c r="A5" s="11"/>
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
@@ -658,29 +643,29 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A6" s="12">
+      <c r="A6" s="10">
         <v>45772</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="11">
+        <v>6</v>
+      </c>
+      <c r="C6" s="9">
         <v>15.25</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A7" s="13"/>
+      <c r="A7" s="11"/>
       <c r="B7" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C7" s="3">
         <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A8" s="13"/>
+      <c r="A8" s="11"/>
       <c r="B8" s="1" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C8" s="3">
         <f>SUM(C6:C7)</f>
@@ -688,27 +673,27 @@
       </c>
     </row>
     <row r="9" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A9" s="12">
+      <c r="A9" s="10">
         <v>45775</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="11">
+        <v>10</v>
+      </c>
+      <c r="C9" s="9">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A10" s="13"/>
+      <c r="A10" s="11"/>
       <c r="B10" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C10" s="3">
         <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A11" s="13"/>
+      <c r="A11" s="11"/>
       <c r="B11" s="1" t="s">
         <v>2</v>
       </c>
@@ -719,221 +704,11 @@
     </row>
     <row r="12" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A12" s="12"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="11"/>
-    </row>
-    <row r="13" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A13" s="13"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="3"/>
-    </row>
-    <row r="14" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A14" s="13"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="3"/>
-    </row>
-    <row r="15" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A15" s="13"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="3"/>
-    </row>
-    <row r="16" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A16" s="13"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="3"/>
-    </row>
-    <row r="17" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A17" s="13"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="3"/>
-    </row>
-    <row r="18" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A18" s="13"/>
-      <c r="B18" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C18" s="3">
-        <f>SUM(C12:C17)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A19" s="12"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="11"/>
-    </row>
-    <row r="20" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A20" s="13"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="3"/>
-    </row>
-    <row r="21" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A21" s="13"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="3"/>
-    </row>
-    <row r="22" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A22" s="13"/>
-      <c r="B22" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C22" s="3">
-        <f>SUM(C19:C21)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A23" s="12"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="11"/>
-    </row>
-    <row r="24" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A24" s="13"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="3"/>
-    </row>
-    <row r="25" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A25" s="13"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="3"/>
-    </row>
-    <row r="26" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A26" s="13"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="3"/>
-    </row>
-    <row r="27" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A27" s="13"/>
-      <c r="B27" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C27" s="3">
-        <f>SUM(C23:C26)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A28" s="12"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="11"/>
-    </row>
-    <row r="29" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A29" s="13"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="3"/>
-    </row>
-    <row r="30" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A30" s="13"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="3"/>
-    </row>
-    <row r="31" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A31" s="13"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="3"/>
-    </row>
-    <row r="32" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A32" s="13"/>
-      <c r="B32" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C32" s="3">
-        <f>SUM(C28:C31)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A33" s="12"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="11"/>
-    </row>
-    <row r="34" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A34" s="13"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="3"/>
-    </row>
-    <row r="35" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A35" s="13"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="3"/>
-    </row>
-    <row r="36" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A36" s="13"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="3"/>
-    </row>
-    <row r="37" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A37" s="13"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="3"/>
-    </row>
-    <row r="38" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A38" s="13"/>
-      <c r="B38" s="5"/>
-      <c r="C38" s="3"/>
-    </row>
-    <row r="39" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A39" s="13"/>
-      <c r="B39" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C39" s="3">
-        <f>SUM(C33:C38)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A40" s="17"/>
-      <c r="B40" s="18"/>
-      <c r="C40" s="11"/>
-    </row>
-    <row r="41" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A41" s="13"/>
-      <c r="B41" s="5"/>
-      <c r="C41" s="3"/>
-    </row>
-    <row r="42" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A42" s="13"/>
-      <c r="B42" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C42" s="3">
-        <f>SUM(C40:C41)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A43" s="12"/>
-      <c r="B43" s="6"/>
-      <c r="C43" s="11"/>
-    </row>
-    <row r="44" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A44" s="13"/>
-      <c r="B44" s="5"/>
-      <c r="C44" s="3"/>
-    </row>
-    <row r="45" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A45" s="13"/>
-      <c r="B45" s="5"/>
-      <c r="C45" s="3"/>
-    </row>
-    <row r="46" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A46" s="13"/>
-      <c r="B46" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C46" s="3">
-        <f>SUM(C43:C45)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A47" s="14"/>
-      <c r="B47" s="15" t="s">
+      <c r="B12" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C47" s="16">
-        <f>C5+C8+C11+C32+C18+C22+C27+C39+C42+C46</f>
+      <c r="C12" s="14">
+        <f>C5+C8+C11</f>
         <v>439.25</v>
       </c>
     </row>
